--- a/Luban/ExcelConfig/Datas/ability_patch.xlsx
+++ b/Luban/ExcelConfig/Datas/ability_patch.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="17680" tabRatio="522"/>
   </bookViews>
   <sheets>
-    <sheet name="英雄技能" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheel1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -35,10 +35,22 @@
     <t>id</t>
   </si>
   <si>
-    <t>cooldown</t>
-  </si>
-  <si>
-    <t>mana_cost</t>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>target_ability</t>
+  </si>
+  <si>
+    <t>precondition_patchs</t>
+  </si>
+  <si>
+    <t>repulsion_patchs</t>
+  </si>
+  <si>
+    <t>max_count#default=-1</t>
+  </si>
+  <si>
+    <t>lowest_lv#default=-1</t>
   </si>
   <si>
     <t>numeric_nodes</t>
@@ -53,7 +65,10 @@
     <t>int</t>
   </si>
   <si>
-    <t>float</t>
+    <t>string</t>
+  </si>
+  <si>
+    <t>(list#sep=;),string</t>
   </si>
   <si>
     <t>list,numeric.AttachValueInfo</t>
@@ -86,16 +101,49 @@
     <t>这是ID</t>
   </si>
   <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>目标技能别名</t>
+  </si>
+  <si>
+    <t>前置条件补丁</t>
+  </si>
+  <si>
+    <t>排斥补丁</t>
+  </si>
+  <si>
+    <t>该补丁最多拥有多少个</t>
+  </si>
+  <si>
+    <t>最低多少级才会出现, -1代表不限制</t>
+  </si>
+  <si>
     <t>附加的数值</t>
   </si>
   <si>
-    <t>当技能伤害时附加状态2,流血,3,流血,1,0,1,物攻/0.5/0;&gt;真实伤害,0.5</t>
-  </si>
-  <si>
-    <t>当技能伤害时附加状态,燃烧</t>
-  </si>
-  <si>
-    <t>概率重复施法,0.5</t>
+    <t>不填代表不需要前置补丁</t>
+  </si>
+  <si>
+    <t>如果有这些补丁, 则自己就不会再出现了</t>
+  </si>
+  <si>
+    <t>劈砍加伤</t>
+  </si>
+  <si>
+    <t>劈砍</t>
+  </si>
+  <si>
+    <t>物攻</t>
+  </si>
+  <si>
+    <t>中间层</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -1050,53 +1098,52 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD83"/>
+  <dimension ref="A1:AH83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD16" sqref="AD16"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.58333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.91666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.8333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.0833333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="20" max="20" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="21" max="21" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="22" max="22" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="24" max="24" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="26" max="26" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="27" max="27" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="28" max="28" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="29" max="29" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="30" max="30" width="57.25" style="2" customWidth="1"/>
-    <col min="31" max="31" width="39.4166666666667" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="8" width="40.0833333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6666666666667" style="2" customWidth="1"/>
+    <col min="10" max="11" width="6.91666666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="19" max="19" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="20" max="20" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="21" max="21" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="23" max="23" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="24" max="24" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="25" max="25" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="26" max="26" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="27" max="27" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="29" max="29" width="5.08333333333333" style="2" customWidth="1"/>
+    <col min="30" max="30" width="5.41666666666667" style="2" customWidth="1"/>
+    <col min="31" max="31" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="32" max="32" width="5.83333333333333" style="2" customWidth="1"/>
+    <col min="33" max="33" width="4.83333333333333" style="2" customWidth="1"/>
+    <col min="34" max="34" width="41.4166666666667" style="2" customWidth="1"/>
+    <col min="35" max="35" width="39.4166666666667" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,130 +1159,152 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:30">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:34">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:25">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="1">
+      <c r="S3" s="1">
         <v>2</v>
       </c>
-      <c r="T3" s="1">
+      <c r="X3" s="1">
         <v>3</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AC3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:29">
+    <row r="4" s="1" customFormat="1" spans="1:33">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
@@ -1245,99 +1314,125 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" s="2">
         <v>10100</v>
       </c>
-      <c r="AD10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:30">
-      <c r="B11" s="2">
-        <v>10101</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:30">
-      <c r="B12" s="2">
-        <v>10200</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="15:15">
-      <c r="O27" s="4"/>
-    </row>
-    <row r="32" spans="15:15">
-      <c r="O32" s="4"/>
-    </row>
-    <row r="37" spans="15:15">
-      <c r="O37" s="4"/>
-    </row>
-    <row r="42" spans="15:15">
-      <c r="O42" s="4"/>
-    </row>
-    <row r="47" spans="15:15">
-      <c r="O47" s="4"/>
-    </row>
-    <row r="52" spans="15:15">
-      <c r="O52" s="4"/>
-    </row>
-    <row r="57" spans="15:15">
-      <c r="O57" s="4"/>
-    </row>
-    <row r="61" spans="15:15">
-      <c r="O61" s="4"/>
-    </row>
-    <row r="65" spans="15:15">
-      <c r="O65" s="4"/>
-    </row>
-    <row r="71" spans="15:15">
-      <c r="O71" s="4"/>
-    </row>
-    <row r="77" spans="15:15">
-      <c r="O77" s="4"/>
-    </row>
-    <row r="83" spans="15:15">
-      <c r="O83" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="19:19">
+      <c r="S27" s="4"/>
+    </row>
+    <row r="32" spans="19:19">
+      <c r="S32" s="4"/>
+    </row>
+    <row r="37" spans="19:19">
+      <c r="S37" s="4"/>
+    </row>
+    <row r="42" spans="19:19">
+      <c r="S42" s="4"/>
+    </row>
+    <row r="47" spans="19:19">
+      <c r="S47" s="4"/>
+    </row>
+    <row r="52" spans="19:19">
+      <c r="S52" s="4"/>
+    </row>
+    <row r="57" spans="19:19">
+      <c r="S57" s="4"/>
+    </row>
+    <row r="61" spans="19:19">
+      <c r="S61" s="4"/>
+    </row>
+    <row r="65" spans="19:19">
+      <c r="S65" s="4"/>
+    </row>
+    <row r="71" spans="19:19">
+      <c r="S71" s="4"/>
+    </row>
+    <row r="77" spans="19:19">
+      <c r="S77" s="4"/>
+    </row>
+    <row r="83" spans="19:19">
+      <c r="S83" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E1:AC1"/>
-    <mergeCell ref="E2:AC2"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="I1:AG1"/>
+    <mergeCell ref="I2:AG2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AG3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Luban/ExcelConfig/Datas/ability_patch.xlsx
+++ b/Luban/ExcelConfig/Datas/ability_patch.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" tabRatio="522"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="522"/>
   </bookViews>
   <sheets>
     <sheet name="Sheel1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="73">
   <si>
     <t>##var</t>
   </si>
@@ -53,6 +53,15 @@
     <t>lowest_lv#default=-1</t>
   </si>
   <si>
+    <t>specials_lvs</t>
+  </si>
+  <si>
+    <t>specials_no_lvs</t>
+  </si>
+  <si>
+    <t>patch_candidates</t>
+  </si>
+  <si>
     <t>numeric_nodes</t>
   </si>
   <si>
@@ -71,6 +80,9 @@
     <t>(list#sep=;),string</t>
   </si>
   <si>
+    <t>(list#sep=;),int</t>
+  </si>
+  <si>
     <t>list,numeric.AttachValueInfo</t>
   </si>
   <si>
@@ -119,6 +131,15 @@
     <t>最低多少级才会出现, -1代表不限制</t>
   </si>
   <si>
+    <t>指定在哪些等级才会出现</t>
+  </si>
+  <si>
+    <t>指定在哪些等级不会出现</t>
+  </si>
+  <si>
+    <t>包含的候选人补丁</t>
+  </si>
+  <si>
     <t>附加的数值</t>
   </si>
   <si>
@@ -140,10 +161,91 @@
     <t>中间层</t>
   </si>
   <si>
+    <t>固定值</t>
+  </si>
+  <si>
+    <t>劈砍补丁1</t>
+  </si>
+  <si>
+    <t>劈砍补丁2</t>
+  </si>
+  <si>
+    <t>目标数</t>
+  </si>
+  <si>
+    <t>劈砍补丁3</t>
+  </si>
+  <si>
+    <t>蓝耗</t>
+  </si>
+  <si>
+    <t>劈砍补丁大1</t>
+  </si>
+  <si>
+    <t>攻击硬直</t>
+  </si>
+  <si>
+    <t>物暴</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>劈砍补丁大2</t>
+  </si>
+  <si>
+    <t>劈砍补丁大3</t>
+  </si>
+  <si>
+    <t>劈砍补丁三选一</t>
+  </si>
+  <si>
+    <t>劈砍补丁大1;劈砍补丁大2;劈砍补丁大3</t>
+  </si>
+  <si>
+    <t>大风车加Dura</t>
+  </si>
+  <si>
+    <t>大风车</t>
+  </si>
+  <si>
+    <t>增加阶段持续时间,施法中,1,5</t>
+  </si>
+  <si>
+    <t>大风车加伤</t>
+  </si>
+  <si>
+    <t>大风车冷却缩减</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
     <t>百分比</t>
   </si>
   <si>
-    <t>f</t>
+    <t>大风车加范围</t>
+  </si>
+  <si>
+    <t>抛投物大小</t>
+  </si>
+  <si>
+    <t>大风车补丁1</t>
+  </si>
+  <si>
+    <t>增加阶段持续时间,施法中,1,1</t>
+  </si>
+  <si>
+    <t>大风车补丁2</t>
+  </si>
+  <si>
+    <t>攻速</t>
+  </si>
+  <si>
+    <t>大风车补丁3</t>
+  </si>
+  <si>
+    <t>增加阶段持续时间,施法中,1,1.5</t>
   </si>
 </sst>
 </file>
@@ -1098,52 +1200,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH83"/>
+  <dimension ref="A1:AK90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.58333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.91666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.6666666666667" style="2" customWidth="1"/>
-    <col min="6" max="8" width="40.0833333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.6666666666667" style="2" customWidth="1"/>
-    <col min="10" max="11" width="6.91666666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="16" max="16" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="19" max="19" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="20" max="20" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="21" max="21" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="22" max="22" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="23" max="23" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="24" max="24" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="26" max="26" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="27" max="27" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="28" max="28" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="29" max="29" width="5.08333333333333" style="2" customWidth="1"/>
-    <col min="30" max="30" width="5.41666666666667" style="2" customWidth="1"/>
-    <col min="31" max="31" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="32" max="32" width="5.83333333333333" style="2" customWidth="1"/>
-    <col min="33" max="33" width="4.83333333333333" style="2" customWidth="1"/>
-    <col min="34" max="34" width="41.4166666666667" style="2" customWidth="1"/>
-    <col min="35" max="35" width="39.4166666666667" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.25" style="2" customWidth="1"/>
+    <col min="8" max="11" width="32.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="2" customWidth="1"/>
+    <col min="13" max="14" width="7" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.875" style="2" customWidth="1"/>
+    <col min="18" max="19" width="7" style="2" customWidth="1"/>
+    <col min="20" max="20" width="6" style="2" customWidth="1"/>
+    <col min="21" max="21" width="4.875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="5.625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="6.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="6" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="5.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="5.625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="6.75" style="2" customWidth="1"/>
+    <col min="30" max="30" width="6" style="2" customWidth="1"/>
+    <col min="31" max="31" width="4.875" style="2" customWidth="1"/>
+    <col min="32" max="32" width="5.125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="5.625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="6.75" style="2" customWidth="1"/>
+    <col min="35" max="35" width="6" style="2" customWidth="1"/>
+    <col min="36" max="36" width="4.875" style="2" customWidth="1"/>
+    <col min="37" max="37" width="42.5" style="2" customWidth="1"/>
+    <col min="38" max="38" width="39.4166666666667" style="2" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:34">
+    <row r="1" s="1" customFormat="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,140 +1274,158 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:34">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:29">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:32">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3" s="1">
         <v>1</v>
       </c>
-      <c r="S3" s="1">
+      <c r="V3" s="1">
         <v>2</v>
       </c>
-      <c r="X3" s="1">
+      <c r="AA3" s="1">
         <v>3</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AF3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:33">
+    <row r="4" s="1" customFormat="1" spans="1:36">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="R4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="W4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="AB4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="AG4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
@@ -1314,125 +1435,504 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
       <c r="B10" s="2">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="2">
+        <v>41</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="2">
+        <v>10002</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="2">
+        <v>10003</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="2">
+        <v>10004</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14" s="2">
         <v>0.3</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="19:19">
-      <c r="S27" s="4"/>
-    </row>
-    <row r="32" spans="19:19">
-      <c r="S32" s="4"/>
-    </row>
-    <row r="37" spans="19:19">
-      <c r="S37" s="4"/>
-    </row>
-    <row r="42" spans="19:19">
-      <c r="S42" s="4"/>
-    </row>
-    <row r="47" spans="19:19">
-      <c r="S47" s="4"/>
-    </row>
-    <row r="52" spans="19:19">
-      <c r="S52" s="4"/>
-    </row>
-    <row r="57" spans="19:19">
-      <c r="S57" s="4"/>
-    </row>
-    <row r="61" spans="19:19">
-      <c r="S61" s="4"/>
-    </row>
-    <row r="65" spans="19:19">
-      <c r="S65" s="4"/>
-    </row>
-    <row r="71" spans="19:19">
-      <c r="S71" s="4"/>
-    </row>
-    <row r="77" spans="19:19">
-      <c r="S77" s="4"/>
-    </row>
-    <row r="83" spans="19:19">
-      <c r="S83" s="4"/>
+      <c r="U14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="2">
+        <v>10005</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="2">
+        <v>10006</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="2">
+        <v>10007</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37">
+      <c r="B18" s="2">
+        <v>10008</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="2">
+        <v>10009</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="2">
+        <v>10010</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="2">
+        <v>10011</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37">
+      <c r="B22" s="2">
+        <v>10012</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T22" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="2">
+        <v>10013</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37">
+      <c r="B24" s="2">
+        <v>10014</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T24" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="22:22">
+      <c r="V34" s="4"/>
+    </row>
+    <row r="39" spans="22:22">
+      <c r="V39" s="4"/>
+    </row>
+    <row r="44" spans="22:22">
+      <c r="V44" s="4"/>
+    </row>
+    <row r="49" spans="22:22">
+      <c r="V49" s="4"/>
+    </row>
+    <row r="54" spans="22:22">
+      <c r="V54" s="4"/>
+    </row>
+    <row r="59" spans="22:22">
+      <c r="V59" s="4"/>
+    </row>
+    <row r="64" spans="22:22">
+      <c r="V64" s="4"/>
+    </row>
+    <row r="68" spans="22:22">
+      <c r="V68" s="4"/>
+    </row>
+    <row r="72" spans="22:22">
+      <c r="V72" s="4"/>
+    </row>
+    <row r="78" spans="22:22">
+      <c r="V78" s="4"/>
+    </row>
+    <row r="84" spans="22:22">
+      <c r="V84" s="4"/>
+    </row>
+    <row r="90" spans="22:22">
+      <c r="V90" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I1:AG1"/>
-    <mergeCell ref="I2:AG2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="L1:AJ1"/>
+    <mergeCell ref="L2:AJ2"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AJ3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
